--- a/examples/PM.xlsx
+++ b/examples/PM.xlsx
@@ -123,15 +123,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -202,6 +202,11 @@
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>56576</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
